--- a/form-files/adaptive_imci/community.xlsx
+++ b/form-files/adaptive_imci/community.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bennett\workspace\cse481k\AdaptiveODK\form-files\group_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bennett\workspace\cse481k\AdaptiveODK\form-files\adaptive_imci\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14388" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14388"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1194,7 +1194,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R70"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2809,7 +2812,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2835,8 +2841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
@@ -3193,7 +3199,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3427,7 +3436,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
